--- a/media/2022-09-22_varazdin.xlsx
+++ b/media/2022-09-22_varazdin.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI58"/>
+  <dimension ref="A1:AJ58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,170 +440,175 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Županija</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Grad/općina</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Naselje</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Broj soba</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Zamjena</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Tip oglasa</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Prodavač</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Detaljnije o kući</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Broj etaža stana</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>O stanu</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Tip stana</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Vlastita šifra objekta</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Godina izgradnje</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Cijena</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Datum</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Stambena površina u m2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Energetski Certifikat</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Površina balkona u m2</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Orijentacija</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Dodatna oprema prostora</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Godina zadnje adaptacije</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Namještenost</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Kat</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Ulaz</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Grijanje</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>tel ili mobitel</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Rezerviranih parking mjesta</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Dostupno od</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Površina terase u m2</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Površina vrta u m2</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>€/m²</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Days Online</t>
         </is>
@@ -613,81 +618,83 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacija
 </t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
         <is>
           <t>3495-1</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>No INFO</t>
         </is>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>168950</v>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/3-sob--stan--ekskluzivna-novogradnja--moderna-zgrada-nove-generacije/oid/3647120</t>
         </is>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="R2" s="2" t="n">
         <v>44820</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>68</v>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
@@ -701,92 +708,95 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="n">
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="n">
         <v>2484.56</v>
       </c>
-      <c r="AI2" t="n">
-        <v>6</v>
+      <c r="AJ2" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacija
 </t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
         <is>
           <t>3494-1</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>No INFO</t>
         </is>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>153700</v>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/2-sob--stan--ekskluzivna-novogradnja--moderna-zgrada-nove-generacije/oid/3647119</t>
         </is>
       </c>
-      <c r="Q3" s="2" t="n">
+      <c r="R3" s="2" t="n">
         <v>44820</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>61</v>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
@@ -800,100 +810,101 @@
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="n">
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="n">
         <v>2519.67</v>
       </c>
-      <c r="AI3" t="n">
-        <v>6</v>
+      <c r="AJ3" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>pravna osoba</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradski plin
 </t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
         <is>
           <t>12340-1</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="O4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P4" t="n">
         <v>264629</v>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/varazdin--centar---prekrasan-3soban-stan-u-prizemlju--parking--lift/oid/3606166</t>
         </is>
       </c>
-      <c r="Q4" s="2" t="n">
+      <c r="R4" s="2" t="n">
         <v>44790</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>100</v>
       </c>
-      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr">
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
         <is>
           <t xml:space="preserve">JugIstokZapad
 </t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t xml:space="preserve">Garaža
 </t>
         </is>
       </c>
-      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
@@ -904,238 +915,240 @@
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="n">
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="n">
         <v>2646.29</v>
       </c>
-      <c r="AI4" t="n">
-        <v>36</v>
+      <c r="AJ4" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradski plinGradski vodovodTeretni lift
 </t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t xml:space="preserve">U stambenoj zgradi
 </t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>1978</t>
-        </is>
-      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
+        <v>1978</v>
+      </c>
+      <c r="P5" t="n">
         <v>90000</v>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/stan-varazdin-banfica/oid/3606871</t>
         </is>
       </c>
-      <c r="Q5" s="2" t="n">
+      <c r="R5" s="2" t="n">
         <v>44790</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>59.15</v>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t xml:space="preserve">D
 </t>
         </is>
       </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr">
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
         <is>
           <t xml:space="preserve">IstokSjever
 </t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t xml:space="preserve">PortafonVlasnički listBesplatni javni parking
 </t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="X5" t="n">
+        <v>2019</v>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>Djelomična</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t xml:space="preserve">10
 </t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t xml:space="preserve">Poseban
 </t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t xml:space="preserve">Etažno plinsko centralno
 </t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>info@wensnekretnine.hr</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>0913903175 ili 042/561-319</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="n">
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="n">
         <v>1521.56</v>
       </c>
-      <c r="AI5" t="n">
-        <v>36</v>
+      <c r="AJ5" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacija
 </t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
         <is>
           <t>3502-1</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>No INFO</t>
         </is>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>299750</v>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/4-sob--stan--ekskluzivna-novogradnja--moderna-zgrada-nove-generacije/oid/3647127</t>
         </is>
       </c>
-      <c r="Q6" s="2" t="n">
+      <c r="R6" s="2" t="n">
         <v>44820</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>120</v>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
@@ -1149,111 +1162,112 @@
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="n">
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="n">
         <v>2497.92</v>
       </c>
-      <c r="AI6" t="n">
-        <v>6</v>
+      <c r="AJ6" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>pravna osoba</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradski plin
 </t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
         <is>
           <t>632-1</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
-      </c>
       <c r="O7" t="n">
+        <v>1982</v>
+      </c>
+      <c r="P7" t="n">
         <v>105000</v>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/stan-prodaja-varazdin-centar-58-45-m2/oid/3618008</t>
         </is>
       </c>
-      <c r="Q7" s="2" t="n">
+      <c r="R7" s="2" t="n">
         <v>44799</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>58</v>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t xml:space="preserve">C
 </t>
         </is>
       </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr">
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
         <is>
           <t xml:space="preserve">Jug
 </t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t xml:space="preserve">Kabelska televizija
 </t>
         </is>
       </c>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr">
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>Potpuna</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
@@ -1262,91 +1276,94 @@
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="n">
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="n">
         <v>1810.34</v>
       </c>
-      <c r="AI7" t="n">
-        <v>27</v>
+      <c r="AJ7" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradski plin
 </t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
         <is>
           <t>3514-1</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>No INFO</t>
         </is>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>119900</v>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/3-soban-stan-75-80-m2--varazdin--banfica/oid/3652342</t>
         </is>
       </c>
-      <c r="Q8" s="2" t="n">
+      <c r="R8" s="2" t="n">
         <v>44824</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>76</v>
       </c>
-      <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
         <is>
           <t xml:space="preserve">Kabelska televizija
 </t>
         </is>
       </c>
-      <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
@@ -1357,92 +1374,95 @@
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="n">
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="n">
         <v>1577.63</v>
       </c>
-      <c r="AI8" t="n">
-        <v>2</v>
+      <c r="AJ8" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>13</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacija
 </t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
         <is>
           <t>3496-1</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>No INFO</t>
         </is>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>166325</v>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/3-sob--stan--ekskluzivna-novogradnja--moderna-zgrada-nove-generacije/oid/3647121</t>
         </is>
       </c>
-      <c r="Q9" s="2" t="n">
+      <c r="R9" s="2" t="n">
         <v>44820</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>67</v>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
@@ -1456,96 +1476,97 @@
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="n">
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="n">
         <v>2482.46</v>
       </c>
-      <c r="AI9" t="n">
-        <v>6</v>
+      <c r="AJ9" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>15</v>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradski plin
 </t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
         <is>
           <t>3515-1</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
       <c r="O10" t="n">
+        <v>2017</v>
+      </c>
+      <c r="P10" t="n">
         <v>125710</v>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/2-soban-stan-48-35-m2--novogradnja--smart-home-system/oid/3652343</t>
         </is>
       </c>
-      <c r="Q10" s="2" t="n">
+      <c r="R10" s="2" t="n">
         <v>44824</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>48</v>
       </c>
-      <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr">
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>Prazno</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
@@ -1554,92 +1575,95 @@
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="n">
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="n">
         <v>2618.96</v>
       </c>
-      <c r="AI10" t="n">
-        <v>2</v>
+      <c r="AJ10" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>16</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacija
 </t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
         <is>
           <t>3486-1</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>No INFO</t>
         </is>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>165525</v>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/2-sob--stan--ekskluzivna-novogradnja--moderna-zgrada-nove-generacije/oid/3647111</t>
         </is>
       </c>
-      <c r="Q11" s="2" t="n">
+      <c r="R11" s="2" t="n">
         <v>44820</v>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>66</v>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
@@ -1653,236 +1677,236 @@
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="n">
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="n">
         <v>2507.95</v>
       </c>
-      <c r="AI11" t="n">
-        <v>6</v>
+      <c r="AJ11" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>20</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t xml:space="preserve">Telefonska linijaGradska kanalizacijaGradski plinGradski vodovodBlizina busa
 </t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t xml:space="preserve">U stambenoj zgradi
 </t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
+        <v>1965</v>
+      </c>
+      <c r="P12" t="n">
         <v>98000</v>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/stan-varazdin-centar/oid/3631303</t>
         </is>
       </c>
-      <c r="Q12" s="2" t="n">
+      <c r="R12" s="2" t="n">
         <v>44808</v>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>58</v>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t xml:space="preserve">C
 </t>
         </is>
       </c>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr">
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr">
         <is>
           <t xml:space="preserve">Jug
 </t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t xml:space="preserve">Klima uređajVlasnički listBesplatni javni parking
 </t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
+      <c r="X12" t="n">
+        <v>2018</v>
+      </c>
+      <c r="Y12" t="inlineStr">
         <is>
           <t>Potpuna</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t xml:space="preserve">4
 </t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AA12" t="inlineStr">
         <is>
           <t xml:space="preserve">Zajednički
 </t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t xml:space="preserve">Peć na plinGrijalice i radijatori na struju
 </t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr">
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr">
         <is>
           <t>098745665</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="n">
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="n">
         <v>1689.66</v>
       </c>
-      <c r="AI12" t="n">
-        <v>18</v>
+      <c r="AJ12" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>23</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>pravna osoba</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradski plin
 </t>
         </is>
       </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
         <is>
           <t>12342-1</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="O13" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P13" t="n">
         <v>510500</v>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/varazdin--centar--4soban-stan-na-2-katu--lift--bazen--2-gpm/oid/3606168</t>
         </is>
       </c>
-      <c r="Q13" s="2" t="n">
+      <c r="R13" s="2" t="n">
         <v>44790</v>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>170</v>
       </c>
-      <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr">
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
         <is>
           <t xml:space="preserve">JugIstokZapadSjever
 </t>
         </is>
       </c>
-      <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
@@ -1894,100 +1918,101 @@
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="n">
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="n">
         <v>3002.94</v>
       </c>
-      <c r="AI13" t="n">
-        <v>36</v>
+      <c r="AJ13" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>24</v>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>pravna osoba</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradski plin
 </t>
         </is>
       </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
         <is>
           <t>12339-1</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="O14" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P14" t="n">
         <v>464500</v>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/varazdin--centar---4soban-stan--1kat--lift--parking/oid/3606165</t>
         </is>
       </c>
-      <c r="Q14" s="2" t="n">
+      <c r="R14" s="2" t="n">
         <v>44790</v>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>163</v>
       </c>
-      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr">
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr">
         <is>
           <t xml:space="preserve">JugIstokZapadSjever
 </t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t xml:space="preserve">Garaža
 </t>
         </is>
       </c>
-      <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
@@ -1995,99 +2020,102 @@
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr">
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr">
         <is>
           <t>15.06.2023</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="n">
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="n">
         <v>2849.69</v>
       </c>
-      <c r="AI14" t="n">
-        <v>36</v>
+      <c r="AJ14" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>25</v>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacija
 </t>
         </is>
       </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
         <is>
           <t>3487-1</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>No INFO</t>
         </is>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>153700</v>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/2-sob--stan--ekskluzivna-novogradnja--moderna-zgrada-nove-generacije/oid/3647112</t>
         </is>
       </c>
-      <c r="Q15" s="2" t="n">
+      <c r="R15" s="2" t="n">
         <v>44820</v>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>61</v>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
@@ -2101,337 +2129,338 @@
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="n">
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="n">
         <v>2519.67</v>
       </c>
-      <c r="AI15" t="n">
-        <v>6</v>
+      <c r="AJ15" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>26</v>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Ludbreg</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Ludbreg</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
-      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="O16" t="n">
+        <v>1970</v>
+      </c>
+      <c r="P16" t="n">
         <v>55000</v>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/stan-ludbreg/oid/3639578</t>
         </is>
       </c>
-      <c r="Q16" s="2" t="n">
+      <c r="R16" s="2" t="n">
         <v>44814</v>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>57</v>
       </c>
-      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="n">
+        <v>2005</v>
+      </c>
+      <c r="Y16" t="inlineStr">
         <is>
           <t>Prazno</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="Z16" t="inlineStr">
         <is>
           <t xml:space="preserve">1
 </t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
+      <c r="AA16" t="inlineStr">
         <is>
           <t xml:space="preserve">Poseban
 </t>
         </is>
       </c>
-      <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr">
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr">
         <is>
           <t>098 848 624</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="n">
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="n">
         <v>964.91</v>
       </c>
-      <c r="AI16" t="n">
-        <v>12</v>
+      <c r="AJ16" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>28</v>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Jelačićka</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>pravna osoba</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradski plinGradski vodovodLift
 </t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t xml:space="preserve">U stambenoj zgradi
 </t>
         </is>
       </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>1978</t>
-        </is>
-      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="O17" t="n">
+        <v>1978</v>
+      </c>
+      <c r="P17" t="n">
         <v>99999</v>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/novo-u-ponudi-prodaja-stan-varazdin-72-00-m2/oid/3604857</t>
         </is>
       </c>
-      <c r="Q17" s="2" t="n">
+      <c r="R17" s="2" t="n">
         <v>44788</v>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>72</v>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t xml:space="preserve">C
 </t>
         </is>
       </c>
-      <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr">
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr">
         <is>
           <t xml:space="preserve">Građevinska dozvolaKlima uređajUporabna dozvolaVlasnički listProtuprovalna vrataBesplatni javni parking
 </t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
+      <c r="X17" t="n">
+        <v>2018</v>
+      </c>
+      <c r="Y17" t="inlineStr">
         <is>
           <t>Djelomična</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="Z17" t="inlineStr">
         <is>
           <t xml:space="preserve">6
 </t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
+      <c r="AA17" t="inlineStr">
         <is>
           <t xml:space="preserve">Poseban
 </t>
         </is>
       </c>
-      <c r="AA17" t="inlineStr">
+      <c r="AB17" t="inlineStr">
         <is>
           <t xml:space="preserve">Etažno plinsko centralno
 </t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="n">
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="n">
         <v>1388.88</v>
       </c>
-      <c r="AI17" t="n">
-        <v>38</v>
+      <c r="AJ17" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>30</v>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacija
 </t>
         </is>
       </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
         <is>
           <t>3488-1</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>No INFO</t>
         </is>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>168950</v>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/3-sob--stan--ekskluzivna-novogradnja--moderna-zgrada-nove-generacije/oid/3647113</t>
         </is>
       </c>
-      <c r="Q18" s="2" t="n">
+      <c r="R18" s="2" t="n">
         <v>44820</v>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>68</v>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
@@ -2445,92 +2474,95 @@
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="n">
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="n">
         <v>2484.56</v>
       </c>
-      <c r="AI18" t="n">
-        <v>6</v>
+      <c r="AJ18" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>32</v>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacija
 </t>
         </is>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
         <is>
           <t>3497-1</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>No INFO</t>
         </is>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>350150</v>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/4-sob--stan--ekskluzivna-novogradnja--moderna-zgrada-nove-generacije/oid/3647122</t>
         </is>
       </c>
-      <c r="Q19" s="2" t="n">
+      <c r="R19" s="2" t="n">
         <v>44820</v>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>140</v>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
@@ -2544,107 +2576,108 @@
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="n">
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="n">
         <v>2501.07</v>
       </c>
-      <c r="AI19" t="n">
-        <v>6</v>
+      <c r="AJ19" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>33</v>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>pravna osoba</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradski plin
 </t>
         </is>
       </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
         <is>
           <t>645-1</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
       <c r="O20" t="n">
+        <v>2007</v>
+      </c>
+      <c r="P20" t="n">
         <v>173000</v>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/stan-prodaja-varazdin--jalkovecka-87-m2/oid/3642546</t>
         </is>
       </c>
-      <c r="Q20" s="2" t="n">
+      <c r="R20" s="2" t="n">
         <v>44817</v>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>87</v>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t xml:space="preserve">B
 </t>
         </is>
       </c>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr">
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr">
         <is>
           <t xml:space="preserve">JugIstok
 </t>
         </is>
       </c>
-      <c r="V20" t="inlineStr">
+      <c r="W20" t="inlineStr">
         <is>
           <t xml:space="preserve">Kabelska televizija
 </t>
         </is>
       </c>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr">
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr">
         <is>
           <t>Potpuna</t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr"/>
@@ -2653,92 +2686,95 @@
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="n">
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="n">
         <v>1988.51</v>
       </c>
-      <c r="AI20" t="n">
-        <v>9</v>
+      <c r="AJ20" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>35</v>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacija
 </t>
         </is>
       </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
         <is>
           <t>3506-1</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>No INFO</t>
         </is>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>176305</v>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/3-sob--stan--ekskluzivna-novogradnja--moderna-zgrada-nove-generacije/oid/3647131</t>
         </is>
       </c>
-      <c r="Q21" s="2" t="n">
+      <c r="R21" s="2" t="n">
         <v>44820</v>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>67</v>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
@@ -2752,92 +2788,95 @@
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="n">
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="n">
         <v>2631.42</v>
       </c>
-      <c r="AI21" t="n">
-        <v>6</v>
+      <c r="AJ21" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>37</v>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacija
 </t>
         </is>
       </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
         <is>
           <t>3491-1</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>No INFO</t>
         </is>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
         <v>350100</v>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/4-sob--stan--ekskluzivna-novogradnja--moderna-zgrada-nove-generacije/oid/3647116</t>
         </is>
       </c>
-      <c r="Q22" s="2" t="n">
+      <c r="R22" s="2" t="n">
         <v>44820</v>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>140</v>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
@@ -2851,92 +2890,95 @@
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
-      <c r="AH22" t="n">
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="n">
         <v>2500.71</v>
       </c>
-      <c r="AI22" t="n">
-        <v>6</v>
+      <c r="AJ22" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>39</v>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacija
 </t>
         </is>
       </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
         <is>
           <t>3504-1</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>No INFO</t>
         </is>
       </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
         <v>350144</v>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/4-sob--stan--ekskluzivna-novogradnja--moderna-zgrada-nove-generacije/oid/3647129</t>
         </is>
       </c>
-      <c r="Q23" s="2" t="n">
+      <c r="R23" s="2" t="n">
         <v>44820</v>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>132</v>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
@@ -2950,92 +2992,95 @@
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="inlineStr"/>
-      <c r="AH23" t="n">
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="n">
         <v>2652.61</v>
       </c>
-      <c r="AI23" t="n">
-        <v>6</v>
+      <c r="AJ23" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>40</v>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacija
 </t>
         </is>
       </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
         <is>
           <t>3507-1</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>No INFO</t>
         </is>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>317470</v>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/4-sob--stan--ekskluzivna-novogradnja--moderna-zgrada-nove-generacije/oid/3647132</t>
         </is>
       </c>
-      <c r="Q24" s="2" t="n">
+      <c r="R24" s="2" t="n">
         <v>44820</v>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>120</v>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="T24" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
@@ -3049,268 +3094,262 @@
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="n">
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="n">
         <v>2645.58</v>
       </c>
-      <c r="AI24" t="n">
-        <v>6</v>
+      <c r="AJ24" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>43</v>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Novi Marof</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>Novi Marof</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradski plinGradski vodovod
 </t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t xml:space="preserve">U stambenoj zgradi
 </t>
         </is>
       </c>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="O25" t="n">
+        <v>1988</v>
+      </c>
+      <c r="P25" t="n">
         <v>88000</v>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/stan-novi-marof/oid/3549286</t>
         </is>
       </c>
-      <c r="Q25" s="2" t="n">
+      <c r="R25" s="2" t="n">
         <v>44745</v>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>82</v>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="T25" t="inlineStr">
         <is>
           <t xml:space="preserve">C
 </t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
+      <c r="U25" t="n">
+        <v>8</v>
+      </c>
+      <c r="V25" t="inlineStr">
         <is>
           <t xml:space="preserve">JugIstokZapad
 </t>
         </is>
       </c>
-      <c r="V25" t="inlineStr">
+      <c r="W25" t="inlineStr">
         <is>
           <t xml:space="preserve">GaražaGrađevinska dozvolaKlima uređajRoštiljVlasnički list
 </t>
         </is>
       </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
+      <c r="X25" t="n">
+        <v>2020</v>
+      </c>
+      <c r="Y25" t="inlineStr">
         <is>
           <t>Potpuna</t>
         </is>
       </c>
-      <c r="Y25" t="inlineStr">
+      <c r="Z25" t="inlineStr">
         <is>
           <t xml:space="preserve">Prizemlje
 </t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
+      <c r="AA25" t="inlineStr">
         <is>
           <t xml:space="preserve">Poseban
 </t>
         </is>
       </c>
-      <c r="AA25" t="inlineStr">
+      <c r="AB25" t="inlineStr">
         <is>
           <t xml:space="preserve">Etažno plinsko centralnoPeć na drva
 </t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr">
+      <c r="AC25" t="inlineStr">
         <is>
           <t>sanja.tepsic@gmail.com</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr">
+      <c r="AD25" t="inlineStr">
         <is>
           <t>0915179977</t>
         </is>
       </c>
-      <c r="AD25" t="inlineStr">
+      <c r="AE25" t="inlineStr">
         <is>
           <t xml:space="preserve">2
 </t>
         </is>
       </c>
-      <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="AG25" t="inlineStr">
-        <is>
-          <t>1.000</t>
-        </is>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="n">
+        <v>32</v>
       </c>
       <c r="AH25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI25" t="n">
         <v>1073.17</v>
       </c>
-      <c r="AI25" t="n">
-        <v>81</v>
+      <c r="AJ25" t="n">
+        <v>171</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>44</v>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacija
 </t>
         </is>
       </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
         <is>
           <t>3468-1</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>No INFO</t>
         </is>
       </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>45000</v>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/2-soban-stan-34-25-m2--centar-grada/oid/3608528</t>
         </is>
       </c>
-      <c r="Q26" s="2" t="n">
+      <c r="R26" s="2" t="n">
         <v>44792</v>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>34</v>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="T26" t="inlineStr">
         <is>
           <t xml:space="preserve">F
 </t>
         </is>
       </c>
-      <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr">
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr">
         <is>
           <t xml:space="preserve">Kabelska televizija
 </t>
         </is>
       </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr"/>
+      <c r="X26" t="n">
+        <v>2021</v>
+      </c>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
@@ -3320,250 +3359,248 @@
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="n">
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="n">
         <v>1323.53</v>
       </c>
-      <c r="AI26" t="n">
-        <v>34</v>
+      <c r="AJ26" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>46</v>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr">
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradski vodovodBlizina busaBlizina vlaka
 </t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t xml:space="preserve">U stambenoj zgradi
 </t>
         </is>
       </c>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>1888</t>
-        </is>
-      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="O27" t="n">
+        <v>1888</v>
+      </c>
+      <c r="P27" t="n">
         <v>119000</v>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/3-soban-stan-varazdin-centar/oid/3616563</t>
         </is>
       </c>
-      <c r="Q27" s="2" t="n">
+      <c r="R27" s="2" t="n">
         <v>44797</v>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>72</v>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="T27" t="inlineStr">
         <is>
           <t xml:space="preserve">D
 </t>
         </is>
       </c>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr">
         <is>
           <t xml:space="preserve">Istok
 </t>
         </is>
       </c>
-      <c r="V27" t="inlineStr">
+      <c r="W27" t="inlineStr">
         <is>
           <t xml:space="preserve">Građevinska dozvolaUporabna dozvolaVlasnički listVanjsko ne-natkriveno mjestoBesplatni javni parking
 </t>
         </is>
       </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
+      <c r="X27" t="n">
+        <v>2021</v>
+      </c>
+      <c r="Y27" t="inlineStr">
         <is>
           <t>Djelomična</t>
         </is>
       </c>
-      <c r="Y27" t="inlineStr">
+      <c r="Z27" t="inlineStr">
         <is>
           <t xml:space="preserve">1
 </t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
+      <c r="AA27" t="inlineStr">
         <is>
           <t xml:space="preserve">Poseban
 </t>
         </is>
       </c>
-      <c r="AA27" t="inlineStr">
+      <c r="AB27" t="inlineStr">
         <is>
           <t xml:space="preserve">Peć na drvaGrijalice i radijatori na struju
 </t>
         </is>
       </c>
-      <c r="AB27" t="inlineStr">
+      <c r="AC27" t="inlineStr">
         <is>
           <t>4tinaad@gmail.com</t>
         </is>
       </c>
-      <c r="AC27" t="inlineStr">
+      <c r="AD27" t="inlineStr">
         <is>
           <t>0918818583</t>
         </is>
       </c>
-      <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+      <c r="AG27" t="inlineStr"/>
       <c r="AH27" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI27" t="n">
         <v>1652.78</v>
       </c>
-      <c r="AI27" t="n">
-        <v>29</v>
+      <c r="AJ27" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>51</v>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>pravna osoba</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradski plin
 </t>
         </is>
       </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
         <is>
           <t>12341-1</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="O28" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P28" t="n">
         <v>293141</v>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/varazdin--centar--luksuzan-3sobann-stan--2-kat--lift--bazen--sauna-gpm/oid/3606167</t>
         </is>
       </c>
-      <c r="Q28" s="2" t="n">
+      <c r="R28" s="2" t="n">
         <v>44790</v>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>99</v>
       </c>
-      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr">
         <is>
           <t xml:space="preserve">JugIstokZapad
 </t>
         </is>
       </c>
-      <c r="V28" t="inlineStr">
+      <c r="W28" t="inlineStr">
         <is>
           <t xml:space="preserve">Garaža
 </t>
         </is>
       </c>
-      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
@@ -3574,92 +3611,95 @@
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="n">
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="n">
         <v>2961.02</v>
       </c>
-      <c r="AI28" t="n">
-        <v>36</v>
+      <c r="AJ28" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>53</v>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacija
 </t>
         </is>
       </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
         <is>
           <t>3511-1</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>No INFO</t>
         </is>
       </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
         <v>511386</v>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/4-sob--stan--ekskluzivna-novogradnja--moderna-zgrada-nove-generacije/oid/3647136</t>
         </is>
       </c>
-      <c r="Q29" s="2" t="n">
+      <c r="R29" s="2" t="n">
         <v>44820</v>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>176</v>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="T29" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
@@ -3673,482 +3713,482 @@
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="n">
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="n">
         <v>2905.6</v>
       </c>
-      <c r="AI29" t="n">
-        <v>6</v>
+      <c r="AJ29" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>54</v>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradska toplanaGradski vodovodLift
 </t>
         </is>
       </c>
-      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="O30" t="n">
+        <v>1980</v>
+      </c>
+      <c r="P30" t="n">
         <v>113700</v>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/stan-varazdin-75-80-m2/oid/3644500</t>
         </is>
       </c>
-      <c r="Q30" s="2" t="n">
+      <c r="R30" s="2" t="n">
         <v>44818</v>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>75.8</v>
       </c>
-      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr">
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
         <is>
           <t xml:space="preserve">PortafonBesplatni javni parking
 </t>
         </is>
       </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
+      <c r="X30" t="n">
+        <v>2018</v>
+      </c>
+      <c r="Y30" t="inlineStr">
         <is>
           <t>Potpuna</t>
         </is>
       </c>
-      <c r="Y30" t="inlineStr">
+      <c r="Z30" t="inlineStr">
         <is>
           <t xml:space="preserve">9
 </t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
+      <c r="AA30" t="inlineStr">
         <is>
           <t xml:space="preserve">Poseban
 </t>
         </is>
       </c>
-      <c r="AA30" t="inlineStr">
+      <c r="AB30" t="inlineStr">
         <is>
           <t xml:space="preserve">Kotlovnica na plin
 </t>
         </is>
       </c>
-      <c r="AB30" t="inlineStr">
+      <c r="AC30" t="inlineStr">
         <is>
           <t>wens.nekretnine@gmail.com</t>
         </is>
       </c>
-      <c r="AC30" t="inlineStr">
+      <c r="AD30" t="inlineStr">
         <is>
           <t>0913903175 ili 042/561-319</t>
         </is>
       </c>
-      <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="n">
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="n">
         <v>1500</v>
       </c>
-      <c r="AI30" t="n">
-        <v>8</v>
+      <c r="AJ30" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>55</v>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
-      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="O31" t="n">
+        <v>1974</v>
+      </c>
+      <c r="P31" t="n">
         <v>95000</v>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="Q31" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/novouredjeni-stan-u-varazdinu/oid/3627420</t>
         </is>
       </c>
-      <c r="Q31" s="2" t="n">
+      <c r="R31" s="2" t="n">
         <v>44805</v>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>65</v>
       </c>
-      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Y31" t="inlineStr">
         <is>
           <t>Prazno</t>
         </is>
       </c>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr">
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr">
         <is>
           <t xml:space="preserve">Poseban
 </t>
         </is>
       </c>
-      <c r="AA31" t="inlineStr">
+      <c r="AB31" t="inlineStr">
         <is>
           <t xml:space="preserve">Etažno plinsko centralno
 </t>
         </is>
       </c>
-      <c r="AB31" t="inlineStr">
+      <c r="AC31" t="inlineStr">
         <is>
           <t>kristic.tomica@gmail.com</t>
         </is>
       </c>
-      <c r="AC31" t="inlineStr">
+      <c r="AD31" t="inlineStr">
         <is>
           <t>0953732774</t>
         </is>
       </c>
-      <c r="AD31" t="inlineStr">
+      <c r="AE31" t="inlineStr">
         <is>
           <t xml:space="preserve">8+
 </t>
         </is>
       </c>
-      <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="n">
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="n">
         <v>1461.54</v>
       </c>
-      <c r="AI31" t="n">
-        <v>21</v>
+      <c r="AJ31" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>57</v>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>Jelačićka</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradski plinGradski vodovodLift
 </t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t xml:space="preserve">U stambenoj zgradi
 </t>
         </is>
       </c>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
-      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="O32" t="n">
+        <v>1996</v>
+      </c>
+      <c r="P32" t="n">
         <v>124000</v>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/stan-sa-panoramskim-pogledom-prodaja-varazdin-82-00-m2/oid/3604805</t>
         </is>
       </c>
-      <c r="Q32" s="2" t="n">
+      <c r="R32" s="2" t="n">
         <v>44788</v>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>82</v>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="T32" t="inlineStr">
         <is>
           <t xml:space="preserve">C
 </t>
         </is>
       </c>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
         <is>
           <t xml:space="preserve">Zapad
 </t>
         </is>
       </c>
-      <c r="V32" t="inlineStr">
+      <c r="W32" t="inlineStr">
         <is>
           <t xml:space="preserve">Građevinska dozvolaKlima uređajPortafonUporabna dozvolaVlasnički listPodno grijanjeProtuprovalna vrataBesplatni javni parking
 </t>
         </is>
       </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
+      <c r="X32" t="n">
+        <v>2021</v>
+      </c>
+      <c r="Y32" t="inlineStr">
         <is>
           <t>Potpuna</t>
         </is>
       </c>
-      <c r="Y32" t="inlineStr">
+      <c r="Z32" t="inlineStr">
         <is>
           <t xml:space="preserve">11
 </t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
+      <c r="AA32" t="inlineStr">
         <is>
           <t xml:space="preserve">Poseban
 </t>
         </is>
       </c>
-      <c r="AA32" t="inlineStr">
+      <c r="AB32" t="inlineStr">
         <is>
           <t xml:space="preserve">Etažno plinsko centralno
 </t>
         </is>
       </c>
-      <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="n">
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="n">
         <v>1512.2</v>
       </c>
-      <c r="AI32" t="n">
-        <v>38</v>
+      <c r="AJ32" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>58</v>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacija
 </t>
         </is>
       </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
         <is>
           <t>3492-1</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>No INFO</t>
         </is>
       </c>
-      <c r="O33" t="n">
+      <c r="P33" t="n">
         <v>175675</v>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="Q33" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/3-sob--stan--ekskluzivna-novogradnja--moderna-zgrada-nove-generacije/oid/3647117</t>
         </is>
       </c>
-      <c r="Q33" s="2" t="n">
+      <c r="R33" s="2" t="n">
         <v>44820</v>
       </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>70</v>
       </c>
-      <c r="S33" t="inlineStr">
+      <c r="T33" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
@@ -4162,92 +4202,95 @@
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="inlineStr"/>
-      <c r="AH33" t="n">
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="n">
         <v>2509.64</v>
       </c>
-      <c r="AI33" t="n">
-        <v>6</v>
+      <c r="AJ33" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>59</v>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacija
 </t>
         </is>
       </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
         <is>
           <t>3503-1</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>No INFO</t>
         </is>
       </c>
-      <c r="O34" t="n">
+      <c r="P34" t="n">
         <v>350100</v>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="Q34" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/4-sob--stan--ekskluzivna-novogradnja--moderna-zgrada-nove-generacije/oid/3647128</t>
         </is>
       </c>
-      <c r="Q34" s="2" t="n">
+      <c r="R34" s="2" t="n">
         <v>44820</v>
       </c>
-      <c r="R34" t="n">
+      <c r="S34" t="n">
         <v>140</v>
       </c>
-      <c r="S34" t="inlineStr">
+      <c r="T34" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
@@ -4261,106 +4304,105 @@
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="inlineStr"/>
-      <c r="AH34" t="n">
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="n">
         <v>2500.71</v>
       </c>
-      <c r="AI34" t="n">
-        <v>6</v>
+      <c r="AJ34" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>62</v>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradski plin
 </t>
         </is>
       </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
         <is>
           <t>3484-1</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
       <c r="O35" t="n">
+        <v>1965</v>
+      </c>
+      <c r="P35" t="n">
         <v>80000</v>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/3-soban-stan-54-70-m2--4--kat--djurek/oid/3645462</t>
         </is>
       </c>
-      <c r="Q35" s="2" t="n">
+      <c r="R35" s="2" t="n">
         <v>44819</v>
       </c>
-      <c r="R35" t="n">
+      <c r="S35" t="n">
         <v>55</v>
       </c>
-      <c r="S35" t="inlineStr">
+      <c r="T35" t="inlineStr">
         <is>
           <t xml:space="preserve">C
 </t>
         </is>
       </c>
-      <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr">
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
         <is>
           <t xml:space="preserve">Kabelska televizija
 </t>
         </is>
       </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr">
+      <c r="X35" t="n">
+        <v>2016</v>
+      </c>
+      <c r="Y35" t="inlineStr">
         <is>
           <t>Potpuna</t>
         </is>
       </c>
-      <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
@@ -4369,92 +4411,95 @@
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="inlineStr"/>
-      <c r="AH35" t="n">
+      <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="n">
         <v>1454.55</v>
       </c>
-      <c r="AI35" t="n">
-        <v>7</v>
+      <c r="AJ35" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>64</v>
+      </c>
+      <c r="C36" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacija
 </t>
         </is>
       </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
         <is>
           <t>3508-1</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>No INFO</t>
         </is>
       </c>
-      <c r="O36" t="n">
+      <c r="P36" t="n">
         <v>371769</v>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="Q36" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/4-sob--stan--ekskluzivna-novogradnja--moderna-zgrada-nove-generacije/oid/3647133</t>
         </is>
       </c>
-      <c r="Q36" s="2" t="n">
+      <c r="R36" s="2" t="n">
         <v>44820</v>
       </c>
-      <c r="R36" t="n">
+      <c r="S36" t="n">
         <v>140</v>
       </c>
-      <c r="S36" t="inlineStr">
+      <c r="T36" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
@@ -4468,96 +4513,97 @@
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="inlineStr"/>
-      <c r="AH36" t="n">
+      <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="n">
         <v>2655.49</v>
       </c>
-      <c r="AI36" t="n">
-        <v>6</v>
+      <c r="AJ36" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>65</v>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>pravna osoba</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradski plin
 </t>
         </is>
       </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
         <is>
           <t>384-1</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
       <c r="O37" t="n">
+        <v>2022</v>
+      </c>
+      <c r="P37" t="n">
         <v>173180</v>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="Q37" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/prodaje-se-novi-stan-u-varazdinu-novogradnja--odmah-useljiv/oid/3643902</t>
         </is>
       </c>
-      <c r="Q37" s="2" t="n">
+      <c r="R37" s="2" t="n">
         <v>44818</v>
       </c>
-      <c r="R37" t="n">
+      <c r="S37" t="n">
         <v>77</v>
       </c>
-      <c r="S37" t="inlineStr">
+      <c r="T37" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr">
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr">
         <is>
           <t xml:space="preserve">Vanjsko ne-natkriveno mjesto
 </t>
         </is>
       </c>
-      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
@@ -4568,95 +4614,96 @@
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="inlineStr"/>
-      <c r="AH37" t="n">
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="n">
         <v>2249.09</v>
       </c>
-      <c r="AI37" t="n">
-        <v>8</v>
+      <c r="AJ37" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>66</v>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>pravna osoba</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradski plin
 </t>
         </is>
       </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
         <is>
           <t>12338-1</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="O38" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P38" t="n">
         <v>508750</v>
       </c>
-      <c r="P38" t="inlineStr">
+      <c r="Q38" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/varazdin--centar---4soban-stan-sa-vrtom-i-2-gpm--lift/oid/3606164</t>
         </is>
       </c>
-      <c r="Q38" s="2" t="n">
+      <c r="R38" s="2" t="n">
         <v>44790</v>
       </c>
-      <c r="R38" t="n">
+      <c r="S38" t="n">
         <v>185</v>
       </c>
-      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr">
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
         <is>
           <t xml:space="preserve">Garaža
 </t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
@@ -4667,233 +4714,235 @@
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="inlineStr"/>
-      <c r="AH38" t="n">
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="n">
         <v>2750</v>
       </c>
-      <c r="AI38" t="n">
-        <v>36</v>
+      <c r="AJ38" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>67</v>
+      </c>
+      <c r="C39" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr">
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradski plinGradski vodovod
 </t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t xml:space="preserve">U stambenoj zgradi
 </t>
         </is>
       </c>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>1960</t>
-        </is>
-      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="O39" t="n">
+        <v>1960</v>
+      </c>
+      <c r="P39" t="n">
         <v>89000</v>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="Q39" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/top-lokacija-prodaja-stan-50-m2-varazdin-centar/oid/3612878</t>
         </is>
       </c>
-      <c r="Q39" s="2" t="n">
+      <c r="R39" s="2" t="n">
         <v>44795</v>
       </c>
-      <c r="R39" t="n">
+      <c r="S39" t="n">
         <v>48</v>
       </c>
-      <c r="S39" t="inlineStr">
+      <c r="T39" t="inlineStr">
         <is>
           <t xml:space="preserve">E
 </t>
         </is>
       </c>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr">
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr">
         <is>
           <t xml:space="preserve">Zapad
 </t>
         </is>
       </c>
-      <c r="V39" t="inlineStr">
+      <c r="W39" t="inlineStr">
         <is>
           <t xml:space="preserve">Građevinska dozvolaUporabna dozvolaVlasnički listBesplatni javni parking
 </t>
         </is>
       </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr">
+      <c r="X39" t="n">
+        <v>2015</v>
+      </c>
+      <c r="Y39" t="inlineStr">
         <is>
           <t>Potpuna</t>
         </is>
       </c>
-      <c r="Y39" t="inlineStr">
+      <c r="Z39" t="inlineStr">
         <is>
           <t xml:space="preserve">Visoko prizemlje
 </t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
+      <c r="AA39" t="inlineStr">
         <is>
           <t xml:space="preserve">Poseban
 </t>
         </is>
       </c>
-      <c r="AA39" t="inlineStr">
+      <c r="AB39" t="inlineStr">
         <is>
           <t xml:space="preserve">Peć na plin
 </t>
         </is>
       </c>
-      <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="inlineStr"/>
-      <c r="AH39" t="n">
+      <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="n">
         <v>1854.17</v>
       </c>
-      <c r="AI39" t="n">
-        <v>31</v>
+      <c r="AJ39" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>68</v>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>Novi Marof</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>Novi Marof</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradski plin
 </t>
         </is>
       </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
         <is>
           <t>3478-1</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="O40" t="inlineStr">
         <is>
           <t>No INFO</t>
         </is>
       </c>
-      <c r="O40" t="n">
+      <c r="P40" t="n">
         <v>40000</v>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="Q40" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/2-soban-stan-44-86-m2-prizemlje--centar--novi-marof/oid/3634239</t>
         </is>
       </c>
-      <c r="Q40" s="2" t="n">
+      <c r="R40" s="2" t="n">
         <v>44811</v>
       </c>
-      <c r="R40" t="n">
+      <c r="S40" t="n">
         <v>45</v>
       </c>
-      <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr">
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr">
         <is>
           <t xml:space="preserve">Kabelska televizija
 </t>
         </is>
       </c>
-      <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
@@ -4904,227 +4953,225 @@
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="inlineStr"/>
-      <c r="AH40" t="n">
+      <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="n">
         <v>888.89</v>
       </c>
-      <c r="AI40" t="n">
-        <v>15</v>
+      <c r="AJ40" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>69</v>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr">
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
         <is>
           <t xml:space="preserve">U stambenoj zgradi
 </t>
         </is>
       </c>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
-      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="O41" t="n">
+        <v>1983</v>
+      </c>
+      <c r="P41" t="n">
         <v>120000</v>
       </c>
-      <c r="P41" t="inlineStr">
+      <c r="Q41" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/stan-varazdin-centar/oid/3638415</t>
         </is>
       </c>
-      <c r="Q41" s="2" t="n">
+      <c r="R41" s="2" t="n">
         <v>44813</v>
       </c>
-      <c r="R41" t="n">
+      <c r="S41" t="n">
         <v>63</v>
       </c>
-      <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="X41" t="inlineStr">
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="n">
+        <v>2015</v>
+      </c>
+      <c r="Y41" t="inlineStr">
         <is>
           <t>Potpuna</t>
         </is>
       </c>
-      <c r="Y41" t="inlineStr">
+      <c r="Z41" t="inlineStr">
         <is>
           <t xml:space="preserve">Prizemlje
 </t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
+      <c r="AA41" t="inlineStr">
         <is>
           <t xml:space="preserve">Poseban
 </t>
         </is>
       </c>
-      <c r="AA41" t="inlineStr">
+      <c r="AB41" t="inlineStr">
         <is>
           <t xml:space="preserve">Etažno plinsko centralno
 </t>
         </is>
       </c>
-      <c r="AB41" t="inlineStr">
+      <c r="AC41" t="inlineStr">
         <is>
           <t>mikacromana@gmail.com</t>
         </is>
       </c>
-      <c r="AC41" t="inlineStr">
+      <c r="AD41" t="inlineStr">
         <is>
           <t>0977975883</t>
         </is>
       </c>
-      <c r="AD41" t="inlineStr"/>
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="inlineStr"/>
-      <c r="AH41" t="n">
+      <c r="AH41" t="inlineStr"/>
+      <c r="AI41" t="n">
         <v>1904.76</v>
       </c>
-      <c r="AI41" t="n">
-        <v>13</v>
+      <c r="AJ41" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>70</v>
+      </c>
+      <c r="C42" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradski plin
 </t>
         </is>
       </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
         <is>
           <t>3512-1</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
       <c r="O42" t="n">
+        <v>1980</v>
+      </c>
+      <c r="P42" t="n">
         <v>116960</v>
       </c>
-      <c r="P42" t="inlineStr">
+      <c r="Q42" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/2-soban-stan-68-80-m2--centar-grada---blizina-ii--o-s-/oid/3648613</t>
         </is>
       </c>
-      <c r="Q42" s="2" t="n">
+      <c r="R42" s="2" t="n">
         <v>44821</v>
       </c>
-      <c r="R42" t="n">
+      <c r="S42" t="n">
         <v>69</v>
       </c>
-      <c r="S42" t="inlineStr">
+      <c r="T42" t="inlineStr">
         <is>
           <t xml:space="preserve">D
 </t>
         </is>
       </c>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr">
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr">
         <is>
           <t xml:space="preserve">IstokZapad
 </t>
         </is>
       </c>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="X42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="n">
+        <v>2005</v>
+      </c>
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
@@ -5134,92 +5181,95 @@
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="inlineStr"/>
-      <c r="AH42" t="n">
+      <c r="AH42" t="inlineStr"/>
+      <c r="AI42" t="n">
         <v>1695.07</v>
       </c>
-      <c r="AI42" t="n">
-        <v>5</v>
+      <c r="AJ42" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>71</v>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacija
 </t>
         </is>
       </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
         <is>
           <t>3499-1</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="O43" t="inlineStr">
         <is>
           <t>No INFO</t>
         </is>
       </c>
-      <c r="O43" t="n">
+      <c r="P43" t="n">
         <v>165525</v>
       </c>
-      <c r="P43" t="inlineStr">
+      <c r="Q43" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/2-sob--stan--ekskluzivna-novogradnja--moderna-zgrada-nove-generacije/oid/3647124</t>
         </is>
       </c>
-      <c r="Q43" s="2" t="n">
+      <c r="R43" s="2" t="n">
         <v>44820</v>
       </c>
-      <c r="R43" t="n">
+      <c r="S43" t="n">
         <v>66</v>
       </c>
-      <c r="S43" t="inlineStr">
+      <c r="T43" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
@@ -5233,92 +5283,95 @@
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="inlineStr"/>
-      <c r="AH43" t="n">
+      <c r="AH43" t="inlineStr"/>
+      <c r="AI43" t="n">
         <v>2507.95</v>
       </c>
-      <c r="AI43" t="n">
-        <v>6</v>
+      <c r="AJ43" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>72</v>
+      </c>
+      <c r="C44" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacija
 </t>
         </is>
       </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
         <is>
           <t>3510-1</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="O44" t="inlineStr">
         <is>
           <t>No INFO</t>
         </is>
       </c>
-      <c r="O44" t="n">
+      <c r="P44" t="n">
         <v>476847</v>
       </c>
-      <c r="P44" t="inlineStr">
+      <c r="Q44" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/4-sob--stan--ekskluzivna-novogradnja--moderna-zgrada-nove-generacije/oid/3647135</t>
         </is>
       </c>
-      <c r="Q44" s="2" t="n">
+      <c r="R44" s="2" t="n">
         <v>44820</v>
       </c>
-      <c r="R44" t="n">
+      <c r="S44" t="n">
         <v>164</v>
       </c>
-      <c r="S44" t="inlineStr">
+      <c r="T44" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
@@ -5332,92 +5385,95 @@
       <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="inlineStr"/>
-      <c r="AH44" t="n">
+      <c r="AH44" t="inlineStr"/>
+      <c r="AI44" t="n">
         <v>2907.6</v>
       </c>
-      <c r="AI44" t="n">
-        <v>6</v>
+      <c r="AJ44" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>74</v>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacija
 </t>
         </is>
       </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
         <is>
           <t>3498-1</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="O45" t="inlineStr">
         <is>
           <t>No INFO</t>
         </is>
       </c>
-      <c r="O45" t="n">
+      <c r="P45" t="n">
         <v>175725</v>
       </c>
-      <c r="P45" t="inlineStr">
+      <c r="Q45" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/3-sob--stan--ekskluzivna-novogradnja--moderna-zgrada-nove-generacije/oid/3647123</t>
         </is>
       </c>
-      <c r="Q45" s="2" t="n">
+      <c r="R45" s="2" t="n">
         <v>44820</v>
       </c>
-      <c r="R45" t="n">
+      <c r="S45" t="n">
         <v>70</v>
       </c>
-      <c r="S45" t="inlineStr">
+      <c r="T45" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
@@ -5431,218 +5487,218 @@
       <c r="AE45" t="inlineStr"/>
       <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="inlineStr"/>
-      <c r="AH45" t="n">
+      <c r="AH45" t="inlineStr"/>
+      <c r="AI45" t="n">
         <v>2510.36</v>
       </c>
-      <c r="AI45" t="n">
-        <v>6</v>
+      <c r="AJ45" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>75</v>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr">
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
-      </c>
+      <c r="N46" t="inlineStr"/>
       <c r="O46" t="n">
+        <v>1982</v>
+      </c>
+      <c r="P46" t="n">
         <v>105000</v>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="Q46" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/stan-varazdin-centar/oid/3603092</t>
         </is>
       </c>
-      <c r="Q46" s="2" t="n">
+      <c r="R46" s="2" t="n">
         <v>44786</v>
       </c>
-      <c r="R46" t="n">
+      <c r="S46" t="n">
         <v>66</v>
       </c>
-      <c r="S46" t="inlineStr">
+      <c r="T46" t="inlineStr">
         <is>
           <t xml:space="preserve">D
 </t>
         </is>
       </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="U46" t="inlineStr"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
       <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="X46" t="inlineStr">
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="n">
+        <v>2015</v>
+      </c>
+      <c r="Y46" t="inlineStr">
         <is>
           <t>Potpuna</t>
         </is>
       </c>
-      <c r="Y46" t="inlineStr">
+      <c r="Z46" t="inlineStr">
         <is>
           <t xml:space="preserve">3
 </t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
+      <c r="AA46" t="inlineStr">
         <is>
           <t xml:space="preserve">Zajednički
 </t>
         </is>
       </c>
-      <c r="AA46" t="inlineStr">
+      <c r="AB46" t="inlineStr">
         <is>
           <t xml:space="preserve">Etažno plinsko centralno
 </t>
         </is>
       </c>
-      <c r="AB46" t="inlineStr">
+      <c r="AC46" t="inlineStr">
         <is>
           <t>mario.sajko@gmail.com</t>
         </is>
       </c>
-      <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="inlineStr"/>
-      <c r="AH46" t="n">
+      <c r="AH46" t="inlineStr"/>
+      <c r="AI46" t="n">
         <v>1590.91</v>
       </c>
-      <c r="AI46" t="n">
-        <v>40</v>
+      <c r="AJ46" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>77</v>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacija
 </t>
         </is>
       </c>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
         <is>
           <t>3489-1</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>No INFO</t>
         </is>
       </c>
-      <c r="O47" t="n">
+      <c r="P47" t="n">
         <v>166300</v>
       </c>
-      <c r="P47" t="inlineStr">
+      <c r="Q47" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/3-sob--stan--ekskluzivna-novogradnja--moderna-zgrada-nove-generacije/oid/3647114</t>
         </is>
       </c>
-      <c r="Q47" s="2" t="n">
+      <c r="R47" s="2" t="n">
         <v>44820</v>
       </c>
-      <c r="R47" t="n">
+      <c r="S47" t="n">
         <v>67</v>
       </c>
-      <c r="S47" t="inlineStr">
+      <c r="T47" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
@@ -5656,229 +5712,231 @@
       <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="inlineStr"/>
-      <c r="AH47" t="n">
+      <c r="AH47" t="inlineStr"/>
+      <c r="AI47" t="n">
         <v>2482.09</v>
       </c>
-      <c r="AI47" t="n">
-        <v>6</v>
+      <c r="AJ47" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>78</v>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
         <is>
           <t xml:space="preserve">Jednoetažni
 </t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t xml:space="preserve">Telefonska linijaGradska kanalizacijaGradski plinLiftBlizina busaBlizina vlaka
 </t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t xml:space="preserve">U stambenoj zgradi
 </t>
         </is>
       </c>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
-      </c>
+      <c r="N48" t="inlineStr"/>
       <c r="O48" t="n">
+        <v>1981</v>
+      </c>
+      <c r="P48" t="n">
         <v>104000</v>
       </c>
-      <c r="P48" t="inlineStr">
+      <c r="Q48" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/stan-varazdin-centar/oid/3646324</t>
         </is>
       </c>
-      <c r="Q48" s="2" t="n">
+      <c r="R48" s="2" t="n">
         <v>44819</v>
       </c>
-      <c r="R48" t="n">
+      <c r="S48" t="n">
         <v>67.25</v>
       </c>
-      <c r="S48" t="inlineStr">
+      <c r="T48" t="inlineStr">
         <is>
           <t xml:space="preserve">E
 </t>
         </is>
       </c>
-      <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr">
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr">
         <is>
           <t xml:space="preserve">Klima uređajPortafonProtuprovalna vrataBesplatni javni parking
 </t>
         </is>
       </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="X48" t="inlineStr">
+      <c r="X48" t="n">
+        <v>2020</v>
+      </c>
+      <c r="Y48" t="inlineStr">
         <is>
           <t>Potpuna</t>
         </is>
       </c>
-      <c r="Y48" t="inlineStr">
+      <c r="Z48" t="inlineStr">
         <is>
           <t xml:space="preserve">10
 </t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
+      <c r="AA48" t="inlineStr">
         <is>
           <t xml:space="preserve">Poseban
 </t>
         </is>
       </c>
-      <c r="AA48" t="inlineStr">
+      <c r="AB48" t="inlineStr">
         <is>
           <t xml:space="preserve">Etažno plinsko centralno
 </t>
         </is>
       </c>
-      <c r="AB48" t="inlineStr">
+      <c r="AC48" t="inlineStr">
         <is>
           <t>kukecbrigita567@gmail.com</t>
         </is>
       </c>
-      <c r="AC48" t="inlineStr">
+      <c r="AD48" t="inlineStr">
         <is>
           <t>0989716352</t>
         </is>
       </c>
-      <c r="AD48" t="inlineStr"/>
       <c r="AE48" t="inlineStr"/>
       <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="inlineStr"/>
-      <c r="AH48" t="n">
+      <c r="AH48" t="inlineStr"/>
+      <c r="AI48" t="n">
         <v>1546.47</v>
       </c>
-      <c r="AI48" t="n">
-        <v>7</v>
+      <c r="AJ48" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>80</v>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacija
 </t>
         </is>
       </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
         <is>
           <t>3490-1</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>No INFO</t>
         </is>
       </c>
-      <c r="O49" t="n">
+      <c r="P49" t="n">
         <v>299800</v>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="Q49" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/4-sob--stan--ekskluzivna-novogradnja--moderna-zgrada-nove-generacije/oid/3647115</t>
         </is>
       </c>
-      <c r="Q49" s="2" t="n">
+      <c r="R49" s="2" t="n">
         <v>44820</v>
       </c>
-      <c r="R49" t="n">
+      <c r="S49" t="n">
         <v>120</v>
       </c>
-      <c r="S49" t="inlineStr">
+      <c r="T49" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
@@ -5892,92 +5950,95 @@
       <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="inlineStr"/>
-      <c r="AH49" t="n">
+      <c r="AH49" t="inlineStr"/>
+      <c r="AI49" t="n">
         <v>2498.33</v>
       </c>
-      <c r="AI49" t="n">
-        <v>6</v>
+      <c r="AJ49" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>81</v>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacija
 </t>
         </is>
       </c>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
         <is>
           <t>3481-1</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="O50" t="inlineStr">
         <is>
           <t>No INFO</t>
         </is>
       </c>
-      <c r="O50" t="n">
+      <c r="P50" t="n">
         <v>175700</v>
       </c>
-      <c r="P50" t="inlineStr">
+      <c r="Q50" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/3-sob--stan--ekskluzivna-novogradnja--moderna-zgrada-nove-generacije/oid/3637179</t>
         </is>
       </c>
-      <c r="Q50" s="2" t="n">
+      <c r="R50" s="2" t="n">
         <v>44813</v>
       </c>
-      <c r="R50" t="n">
+      <c r="S50" t="n">
         <v>70</v>
       </c>
-      <c r="S50" t="inlineStr">
+      <c r="T50" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
@@ -5991,92 +6052,95 @@
       <c r="AE50" t="inlineStr"/>
       <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="inlineStr"/>
-      <c r="AH50" t="n">
+      <c r="AH50" t="inlineStr"/>
+      <c r="AI50" t="n">
         <v>2510</v>
       </c>
-      <c r="AI50" t="n">
-        <v>13</v>
+      <c r="AJ50" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>83</v>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacija
 </t>
         </is>
       </c>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
         <is>
           <t>3500-1</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="O51" t="inlineStr">
         <is>
           <t>No INFO</t>
         </is>
       </c>
-      <c r="O51" t="n">
+      <c r="P51" t="n">
         <v>153650</v>
       </c>
-      <c r="P51" t="inlineStr">
+      <c r="Q51" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/2-sob--stan--ekskluzivna-novogradnja--moderna-zgrada-nove-generacije/oid/3647125</t>
         </is>
       </c>
-      <c r="Q51" s="2" t="n">
+      <c r="R51" s="2" t="n">
         <v>44820</v>
       </c>
-      <c r="R51" t="n">
+      <c r="S51" t="n">
         <v>61</v>
       </c>
-      <c r="S51" t="inlineStr">
+      <c r="T51" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
@@ -6090,105 +6154,106 @@
       <c r="AE51" t="inlineStr"/>
       <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="inlineStr"/>
-      <c r="AH51" t="n">
+      <c r="AH51" t="inlineStr"/>
+      <c r="AI51" t="n">
         <v>2518.85</v>
       </c>
-      <c r="AI51" t="n">
-        <v>6</v>
+      <c r="AJ51" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>84</v>
+      </c>
+      <c r="C52" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradski plin
 </t>
         </is>
       </c>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
         <is>
           <t>3482-1</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
-      </c>
       <c r="O52" t="n">
+        <v>2003</v>
+      </c>
+      <c r="P52" t="n">
         <v>239305</v>
       </c>
-      <c r="P52" t="inlineStr">
+      <c r="Q52" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/4-soban-stan-125-95-m2--1--kat--centar--novija-zgrada/oid/3638608</t>
         </is>
       </c>
-      <c r="Q52" s="2" t="n">
+      <c r="R52" s="2" t="n">
         <v>44814</v>
       </c>
-      <c r="R52" t="n">
+      <c r="S52" t="n">
         <v>126</v>
       </c>
-      <c r="S52" t="inlineStr">
+      <c r="T52" t="inlineStr">
         <is>
           <t xml:space="preserve">B
 </t>
         </is>
       </c>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr">
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr">
         <is>
           <t xml:space="preserve">JugSjever
 </t>
         </is>
       </c>
-      <c r="V52" t="inlineStr">
+      <c r="W52" t="inlineStr">
         <is>
           <t xml:space="preserve">Kabelska televizija
 </t>
         </is>
       </c>
-      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr"/>
@@ -6199,92 +6264,95 @@
       <c r="AE52" t="inlineStr"/>
       <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="inlineStr"/>
-      <c r="AH52" t="n">
+      <c r="AH52" t="inlineStr"/>
+      <c r="AI52" t="n">
         <v>1899.25</v>
       </c>
-      <c r="AI52" t="n">
-        <v>12</v>
+      <c r="AJ52" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>85</v>
+      </c>
+      <c r="C53" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacija
 </t>
         </is>
       </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
         <is>
           <t>3505-1</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="O53" t="inlineStr">
         <is>
           <t>No INFO</t>
         </is>
       </c>
-      <c r="O53" t="n">
+      <c r="P53" t="n">
         <v>179087</v>
       </c>
-      <c r="P53" t="inlineStr">
+      <c r="Q53" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/3-sob--stan--ekskluzivna-novogradnja--moderna-zgrada-nove-generacije/oid/3647130</t>
         </is>
       </c>
-      <c r="Q53" s="2" t="n">
+      <c r="R53" s="2" t="n">
         <v>44820</v>
       </c>
-      <c r="R53" t="n">
+      <c r="S53" t="n">
         <v>68</v>
       </c>
-      <c r="S53" t="inlineStr">
+      <c r="T53" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
@@ -6298,92 +6366,95 @@
       <c r="AE53" t="inlineStr"/>
       <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="inlineStr"/>
-      <c r="AH53" t="n">
+      <c r="AH53" t="inlineStr"/>
+      <c r="AI53" t="n">
         <v>2633.63</v>
       </c>
-      <c r="AI53" t="n">
-        <v>6</v>
+      <c r="AJ53" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>86</v>
+      </c>
+      <c r="C54" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacija
 </t>
         </is>
       </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
         <is>
           <t>3509-1</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="O54" t="inlineStr">
         <is>
           <t>No INFO</t>
         </is>
       </c>
-      <c r="O54" t="n">
+      <c r="P54" t="n">
         <v>526321</v>
       </c>
-      <c r="P54" t="inlineStr">
+      <c r="Q54" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/4-sob--stan--ekskluzivna-novogradnja--moderna-zgrada-nove-generacije/oid/3647134</t>
         </is>
       </c>
-      <c r="Q54" s="2" t="n">
+      <c r="R54" s="2" t="n">
         <v>44820</v>
       </c>
-      <c r="R54" t="n">
+      <c r="S54" t="n">
         <v>181</v>
       </c>
-      <c r="S54" t="inlineStr">
+      <c r="T54" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
@@ -6397,101 +6468,102 @@
       <c r="AE54" t="inlineStr"/>
       <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="inlineStr"/>
-      <c r="AH54" t="n">
+      <c r="AH54" t="inlineStr"/>
+      <c r="AI54" t="n">
         <v>2907.85</v>
       </c>
-      <c r="AI54" t="n">
-        <v>6</v>
+      <c r="AJ54" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>92</v>
+      </c>
+      <c r="C55" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>Varaždin - Okolica</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>Kućan Marof</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradski plin
 </t>
         </is>
       </c>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
         <is>
           <t>3480-1</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
       <c r="O55" t="n">
+        <v>2022</v>
+      </c>
+      <c r="P55" t="n">
         <v>165000</v>
       </c>
-      <c r="P55" t="inlineStr">
+      <c r="Q55" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/4-soban-stan-u-urbanoj-vili-132-m2--s-dvoristem--kucan-marof/oid/3637178</t>
         </is>
       </c>
-      <c r="Q55" s="2" t="n">
+      <c r="R55" s="2" t="n">
         <v>44813</v>
       </c>
-      <c r="R55" t="n">
+      <c r="S55" t="n">
         <v>132</v>
       </c>
-      <c r="S55" t="inlineStr">
+      <c r="T55" t="inlineStr">
         <is>
           <t xml:space="preserve">A+
 </t>
         </is>
       </c>
-      <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr">
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr">
         <is>
           <t>Prazno</t>
         </is>
       </c>
-      <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr"/>
@@ -6500,106 +6572,105 @@
       <c r="AE55" t="inlineStr"/>
       <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="inlineStr"/>
-      <c r="AH55" t="n">
+      <c r="AH55" t="inlineStr"/>
+      <c r="AI55" t="n">
         <v>1250</v>
       </c>
-      <c r="AI55" t="n">
-        <v>13</v>
+      <c r="AJ55" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>93</v>
+      </c>
+      <c r="C56" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacijaGradski plin
 </t>
         </is>
       </c>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
         <is>
           <t>3516-1</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
       <c r="O56" t="n">
+        <v>1971</v>
+      </c>
+      <c r="P56" t="n">
         <v>93000</v>
       </c>
-      <c r="P56" t="inlineStr">
+      <c r="Q56" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/2-soban-stan-64-90-m2--banfica--kompl--renoviran/oid/3655524</t>
         </is>
       </c>
-      <c r="Q56" s="2" t="n">
+      <c r="R56" s="2" t="n">
         <v>44826</v>
       </c>
-      <c r="R56" t="n">
+      <c r="S56" t="n">
         <v>65</v>
       </c>
-      <c r="S56" t="inlineStr">
+      <c r="T56" t="inlineStr">
         <is>
           <t xml:space="preserve">D
 </t>
         </is>
       </c>
-      <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr">
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr">
         <is>
           <t xml:space="preserve">Kabelska televizija
 </t>
         </is>
       </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="X56" t="inlineStr">
+      <c r="X56" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Y56" t="inlineStr">
         <is>
           <t>Prazno</t>
         </is>
       </c>
-      <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr"/>
@@ -6608,92 +6679,95 @@
       <c r="AE56" t="inlineStr"/>
       <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="inlineStr"/>
-      <c r="AH56" t="n">
+      <c r="AH56" t="inlineStr"/>
+      <c r="AI56" t="n">
         <v>1430.77</v>
       </c>
-      <c r="AI56" t="n">
-        <v>0</v>
+      <c r="AJ56" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>94</v>
+      </c>
+      <c r="C57" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacija
 </t>
         </is>
       </c>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
         <is>
           <t>3501-1</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr">
+      <c r="O57" t="inlineStr">
         <is>
           <t>No INFO</t>
         </is>
       </c>
-      <c r="O57" t="n">
+      <c r="P57" t="n">
         <v>166275</v>
       </c>
-      <c r="P57" t="inlineStr">
+      <c r="Q57" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/3-sob--stan--ekskluzivna-novogradnja--moderna-zgrada-nove-generacije/oid/3647126</t>
         </is>
       </c>
-      <c r="Q57" s="2" t="n">
+      <c r="R57" s="2" t="n">
         <v>44820</v>
       </c>
-      <c r="R57" t="n">
+      <c r="S57" t="n">
         <v>67</v>
       </c>
-      <c r="S57" t="inlineStr">
+      <c r="T57" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
@@ -6707,92 +6781,95 @@
       <c r="AE57" t="inlineStr"/>
       <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="inlineStr"/>
-      <c r="AH57" t="n">
+      <c r="AH57" t="inlineStr"/>
+      <c r="AI57" t="n">
         <v>2481.72</v>
       </c>
-      <c r="AI57" t="n">
-        <v>6</v>
+      <c r="AJ57" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>96</v>
+      </c>
+      <c r="C58" t="inlineStr">
         <is>
           <t>Varaždinska</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>Varaždin</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>Centar</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>ne</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>ponuda</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>privatna osoba</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
         <is>
           <t xml:space="preserve">Gradska kanalizacija
 </t>
         </is>
       </c>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
         <is>
           <t>3493-1</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr">
+      <c r="O58" t="inlineStr">
         <is>
           <t>No INFO</t>
         </is>
       </c>
-      <c r="O58" t="n">
+      <c r="P58" t="n">
         <v>165475</v>
       </c>
-      <c r="P58" t="inlineStr">
+      <c r="Q58" t="inlineStr">
         <is>
           <t>https://www.index.hr/oglasi/2-sob--stan--ekskluzivna-novogradnja--moderna-zgrada-nove-generacije/oid/3647118</t>
         </is>
       </c>
-      <c r="Q58" s="2" t="n">
+      <c r="R58" s="2" t="n">
         <v>44820</v>
       </c>
-      <c r="R58" t="n">
+      <c r="S58" t="n">
         <v>66</v>
       </c>
-      <c r="S58" t="inlineStr">
+      <c r="T58" t="inlineStr">
         <is>
           <t xml:space="preserve">A
 </t>
         </is>
       </c>
-      <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
@@ -6806,11 +6883,12 @@
       <c r="AE58" t="inlineStr"/>
       <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="inlineStr"/>
-      <c r="AH58" t="n">
+      <c r="AH58" t="inlineStr"/>
+      <c r="AI58" t="n">
         <v>2507.2</v>
       </c>
-      <c r="AI58" t="n">
-        <v>6</v>
+      <c r="AJ58" t="n">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
